--- a/3.6/Vergleich.xlsx
+++ b/3.6/Vergleich.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06376A96-DBA1-468A-84A0-ECB5D09BC057}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64913719-094D-438C-A288-7888977E0428}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Metrik</t>
   </si>
@@ -124,9 +124,6 @@
     <t>Messung der Antwortzeit</t>
   </si>
   <si>
-    <t>Messung des Durchsatzes in einer bestimmten Zeitspanne</t>
-  </si>
-  <si>
     <t>Anpassung an Lastzunahme: Ordinalskala(automatisch, manuell, nicht möglich)</t>
   </si>
   <si>
@@ -134,14 +131,55 @@
   </si>
   <si>
     <t>Verschlüsselung der Daten: Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>leicht umsetzbar</t>
+  </si>
+  <si>
+    <t>verfügbar</t>
+  </si>
+  <si>
+    <t>59 s</t>
+  </si>
+  <si>
+    <t>manuell</t>
+  </si>
+  <si>
+    <t>automatisch</t>
+  </si>
+  <si>
+    <t>Messung des Durchsatzes bei 10.000 Anfragen mit 255 echt parallelen Clients</t>
+  </si>
+  <si>
+    <t>1593,8 Anfragen/sec</t>
+  </si>
+  <si>
+    <t>53,2 Anfragen/sec</t>
+  </si>
+  <si>
+    <t>332 ms</t>
+  </si>
+  <si>
+    <t>19 ms</t>
+  </si>
+  <si>
+    <t>enthalten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -404,8 +442,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,42 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,6 +510,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -754,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,25 +806,25 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="12"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -793,41 +832,41 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="15"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>49</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="19" t="s">
@@ -841,47 +880,47 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="16"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="12"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="17" t="s">
@@ -889,79 +928,79 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="15"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="15"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="16"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="12"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="12"/>
-      <c r="D30" s="11" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E30" s="17" t="s">
@@ -969,63 +1008,63 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="16"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="12"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="12"/>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="17" t="s">
@@ -1033,67 +1072,79 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="18"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
+      <c r="D42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="15"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="15"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="8"/>
+      <c r="D46" s="3">
+        <v>8</v>
+      </c>
+      <c r="E46" s="6">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="16"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="12"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="4"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="12"/>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="17" t="s">
@@ -1101,79 +1152,85 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="18"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
+      <c r="D54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="15"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
+      <c r="D56" s="4">
+        <v>20</v>
+      </c>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C57" s="19"/>
       <c r="D57" s="20"/>
-      <c r="E57" s="8"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C58" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="20"/>
+      <c r="D58" s="20" t="s">
+        <v>39</v>
+      </c>
       <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="14"/>
-      <c r="D59" s="5"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3"/>
       <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="8"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="16"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="9"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="14"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="12"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="4"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="12"/>
-      <c r="D66" s="11" t="s">
+      <c r="C66" s="11"/>
+      <c r="D66" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E66" s="17" t="s">
@@ -1181,67 +1238,79 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
       <c r="E67" s="18"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
+      <c r="D68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="15"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="2"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="15"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="8"/>
+      <c r="D72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="16"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="14"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="12"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="4"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="12"/>
-      <c r="D78" s="11" t="s">
+      <c r="C78" s="11"/>
+      <c r="D78" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E78" s="17" t="s">
@@ -1249,88 +1318,73 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
       <c r="E79" s="18"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="14" t="s">
+      <c r="C80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="2"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="15"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="14" t="s">
+      <c r="D82" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="8"/>
+      <c r="E82" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="83" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="16"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="10"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:E77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
@@ -1341,36 +1395,60 @@
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:E77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3.6/Vergleich.xlsx
+++ b/3.6/Vergleich.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64913719-094D-438C-A288-7888977E0428}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D617B9-8D6D-4DF7-BDF4-31A6EEC56155}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-1530" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>Metrik</t>
   </si>
@@ -157,13 +157,19 @@
     <t>53,2 Anfragen/sec</t>
   </si>
   <si>
-    <t>332 ms</t>
-  </si>
-  <si>
     <t>19 ms</t>
   </si>
   <si>
     <t>enthalten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gut </t>
+  </si>
+  <si>
+    <t>28 s</t>
+  </si>
+  <si>
+    <t>167 ms</t>
   </si>
 </sst>
 </file>
@@ -444,6 +450,34 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -462,6 +496,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -471,36 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -510,7 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -793,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,572 +812,628 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="11"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="14">
         <v>49</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="16">
         <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="21">
         <v>16</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="22">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="14"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="11"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="14">
         <v>2</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="16">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="6"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="11"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="11"/>
-      <c r="D30" s="10" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="6"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E38" s="14"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="11"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="16"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="11"/>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="18"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="15" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="6"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="6"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="13">
         <v>8</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="16">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="9"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="11"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="11"/>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="18"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="6"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="14">
         <v>20</v>
       </c>
-      <c r="E56" s="6"/>
+      <c r="E56" s="16">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="6"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="22"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="23"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="6"/>
+      <c r="D60" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="9"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C64" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E64" s="14"/>
+      <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="11"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="16"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="11"/>
-      <c r="D66" s="10" t="s">
+      <c r="C66" s="10"/>
+      <c r="D66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="17" t="s">
+      <c r="E66" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="18"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="5"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="D68" s="13" t="s">
         <v>45</v>
       </c>
+      <c r="E68" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="6"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="16"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="6"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="16"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E76" s="14"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="11"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="16"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="11"/>
-      <c r="D78" s="10" t="s">
+      <c r="C78" s="10"/>
+      <c r="D78" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="17" t="s">
+      <c r="E78" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="18"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="5"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E80" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="6"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="16"/>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>47</v>
+      <c r="E82" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="7"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="9"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D2:E3"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C76:C79"/>
+    <mergeCell ref="D76:E77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:E65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:E51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:E39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="D18:D19"/>
@@ -1385,68 +1447,22 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:E39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:E51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:E65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="C76:C79"/>
-    <mergeCell ref="D76:E77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D2:E3"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
